--- a/Excel/Adactinhotel.xlsx
+++ b/Excel/Adactinhotel.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="70">
   <si>
     <t>username</t>
   </si>
@@ -38,6 +38,9 @@
     <t>password</t>
   </si>
   <si>
+    <t>LBVU7K</t>
+  </si>
+  <si>
     <t>Location</t>
   </si>
   <si>
@@ -224,7 +227,16 @@
     <t xml:space="preserve"> order id</t>
   </si>
   <si>
-    <t>E8E90E2W93</t>
+    <t>KG7TND5VF8</t>
+  </si>
+  <si>
+    <t>OLNRTQF794</t>
+  </si>
+  <si>
+    <t>241F5V5ROJ</t>
+  </si>
+  <si>
+    <t>WU41EN73S6</t>
   </si>
 </sst>
 </file>
@@ -238,13 +250,19 @@
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="180" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
@@ -717,141 +735,144 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -1396,319 +1417,319 @@
   <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.5714285714286" customWidth="1"/>
-    <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="16.2857142857143" customWidth="1"/>
-    <col min="4" max="4" width="13.8571428571429" customWidth="1"/>
-    <col min="5" max="5" width="15.2857142857143" customWidth="1"/>
-    <col min="6" max="6" width="12.4285714285714" customWidth="1"/>
-    <col min="7" max="8" width="13.1428571428571" customWidth="1"/>
-    <col min="9" max="9" width="14.8571428571429" customWidth="1"/>
-    <col min="10" max="10" width="11.2857142857143" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="18.5714285714286"/>
+    <col min="2" max="2" customWidth="true" width="19.0"/>
+    <col min="3" max="3" customWidth="true" width="16.2857142857143"/>
+    <col min="4" max="4" customWidth="true" width="13.8571428571429"/>
+    <col min="5" max="5" customWidth="true" width="15.2857142857143"/>
+    <col min="6" max="6" customWidth="true" width="12.4285714285714"/>
+    <col min="7" max="8" customWidth="true" width="13.1428571428571"/>
+    <col min="9" max="9" customWidth="true" width="14.8571428571429"/>
+    <col min="10" max="10" customWidth="true" width="11.2857142857143"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="B2">
-        <v>123456</v>
-      </c>
-      <c r="C2">
-        <v>123.456</v>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="0">
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="A3" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="E3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="F3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="G3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="H3" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="I3" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="A4" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="E4" s="2" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="A5" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="D5" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="E5" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="1" t="s">
+      <c r="A6" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="D6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="E6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="F6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="G6" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="H6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="I6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="J6" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="K6" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" s="2">
+      <c r="A7" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="B7" s="3">
         <v>45491</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" s="2">
+      <c r="A8" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="B8" s="3">
         <v>45492</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="1" t="s">
+      <c r="A9" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="C9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="D9" s="2" t="s">
         <v>26</v>
       </c>
+      <c r="E9" s="2" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="1" t="s">
+      <c r="A10" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="C10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="D10" s="2" t="s">
         <v>26</v>
       </c>
+      <c r="E10" s="2" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="A11" t="s" s="0">
         <v>38</v>
       </c>
+      <c r="B11" t="s" s="0">
+        <v>39</v>
+      </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="A12" t="s" s="0">
         <v>40</v>
       </c>
+      <c r="B12" t="s" s="0">
+        <v>41</v>
+      </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>41</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="A13" t="s" s="0">
         <v>42</v>
       </c>
+      <c r="B13" t="s" s="0">
+        <v>43</v>
+      </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B14" s="3" t="s">
+      <c r="A14" t="s" s="0">
         <v>44</v>
       </c>
+      <c r="B14" s="4" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>45</v>
-      </c>
-      <c r="B15" s="1" t="s">
+      <c r="A15" t="s" s="0">
         <v>46</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="C15" s="2" t="s">
         <v>48</v>
       </c>
+      <c r="D15" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" t="s">
-        <v>49</v>
-      </c>
-      <c r="B16" s="1" t="s">
+      <c r="A16" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="B16" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="C16" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="D16" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="E16" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="F16" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="G16" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="H16" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="J16" s="1" t="s">
+      <c r="I16" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="K16" s="1" t="s">
+      <c r="J16" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="L16" s="1" t="s">
+      <c r="K16" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="M16" s="1" t="s">
+      <c r="L16" s="2" t="s">
         <v>61</v>
       </c>
+      <c r="M16" s="2" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" t="s">
-        <v>62</v>
-      </c>
-      <c r="B17">
+      <c r="A17" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="B17" s="0">
         <v>2024</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="0">
         <v>2025</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="0">
         <v>2026</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="0">
         <v>2027</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="0">
         <v>2028</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>63</v>
-      </c>
-      <c r="B18">
+      <c r="A18" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="B18" s="0">
         <v>123</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="0">
         <v>456</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="0">
         <v>789</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>64</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="A19" t="s" s="0">
         <v>65</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
